--- a/natmiOut/OldD2/LR-pairs_lrc2p/C3-Cr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/C3-Cr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H2">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I2">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J2">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.892363165631572</v>
+        <v>0.8923635000000001</v>
       </c>
       <c r="N2">
-        <v>0.892363165631572</v>
+        <v>1.784727</v>
       </c>
       <c r="O2">
-        <v>0.4789609722167717</v>
+        <v>0.3792348257544297</v>
       </c>
       <c r="P2">
-        <v>0.4789609722167717</v>
+        <v>0.3016563721599398</v>
       </c>
       <c r="Q2">
-        <v>0.5501568939145531</v>
+        <v>0.605299085685</v>
       </c>
       <c r="R2">
-        <v>0.5501568939145531</v>
+        <v>2.42119634274</v>
       </c>
       <c r="S2">
-        <v>0.002076860298263117</v>
+        <v>0.001670660588847712</v>
       </c>
       <c r="T2">
-        <v>0.002076860298263117</v>
+        <v>0.0008880933173494175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.61651681188026</v>
+        <v>0.67831</v>
       </c>
       <c r="H3">
-        <v>0.61651681188026</v>
+        <v>1.35662</v>
       </c>
       <c r="I3">
-        <v>0.004336178558872551</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J3">
-        <v>0.004336178558872551</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.97075975543119</v>
+        <v>0.15979</v>
       </c>
       <c r="N3">
-        <v>0.97075975543119</v>
+        <v>0.47937</v>
       </c>
       <c r="O3">
-        <v>0.5210390277832283</v>
+        <v>0.06790722929310794</v>
       </c>
       <c r="P3">
-        <v>0.5210390277832283</v>
+        <v>0.08102360479911513</v>
       </c>
       <c r="Q3">
-        <v>0.5984897095200982</v>
+        <v>0.1083871549</v>
       </c>
       <c r="R3">
-        <v>0.5984897095200982</v>
+        <v>0.6503229294</v>
       </c>
       <c r="S3">
-        <v>0.002259318260609434</v>
+        <v>0.0002991548348761193</v>
       </c>
       <c r="T3">
-        <v>0.002259318260609434</v>
+        <v>0.000238538047296752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.379604324632</v>
+        <v>0.67831</v>
       </c>
       <c r="H4">
-        <v>101.379604324632</v>
+        <v>1.35662</v>
       </c>
       <c r="I4">
-        <v>0.7130382466599003</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J4">
-        <v>0.7130382466599003</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.892363165631572</v>
+        <v>1.050507666666667</v>
       </c>
       <c r="N4">
-        <v>0.892363165631572</v>
+        <v>3.151523</v>
       </c>
       <c r="O4">
-        <v>0.4789609722167717</v>
+        <v>0.4464426121440712</v>
       </c>
       <c r="P4">
-        <v>0.4789609722167717</v>
+        <v>0.5326736217688252</v>
       </c>
       <c r="Q4">
-        <v>90.46742464560482</v>
+        <v>0.7125698553766666</v>
       </c>
       <c r="R4">
-        <v>90.46742464560482</v>
+        <v>4.27541913226</v>
       </c>
       <c r="S4">
-        <v>0.3415174918479681</v>
+        <v>0.001966734135789249</v>
       </c>
       <c r="T4">
-        <v>0.3415174918479681</v>
+        <v>0.001568221086907403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.379604324632</v>
+        <v>0.67831</v>
       </c>
       <c r="H5">
-        <v>101.379604324632</v>
+        <v>1.35662</v>
       </c>
       <c r="I5">
-        <v>0.7130382466599003</v>
+        <v>0.004405345910740629</v>
       </c>
       <c r="J5">
-        <v>0.7130382466599003</v>
+        <v>0.002944056215323526</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.97075975543119</v>
+        <v>0.250402</v>
       </c>
       <c r="N5">
-        <v>0.97075975543119</v>
+        <v>0.500804</v>
       </c>
       <c r="O5">
-        <v>0.5210390277832283</v>
+        <v>0.1064153328083911</v>
       </c>
       <c r="P5">
-        <v>0.5210390277832283</v>
+        <v>0.08464640127211977</v>
       </c>
       <c r="Q5">
-        <v>98.41523989989057</v>
+        <v>0.16985018062</v>
       </c>
       <c r="R5">
-        <v>98.41523989989057</v>
+        <v>0.6794007224800001</v>
       </c>
       <c r="S5">
-        <v>0.3715207548119322</v>
+        <v>0.0004687963512275489</v>
       </c>
       <c r="T5">
-        <v>0.3715207548119322</v>
+        <v>0.0002492037637699534</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H6">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I6">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J6">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.892363165631572</v>
+        <v>0.8923635000000001</v>
       </c>
       <c r="N6">
-        <v>0.892363165631572</v>
+        <v>1.784727</v>
       </c>
       <c r="O6">
-        <v>0.4789609722167717</v>
+        <v>0.3792348257544297</v>
       </c>
       <c r="P6">
-        <v>0.4789609722167717</v>
+        <v>0.3016563721599398</v>
       </c>
       <c r="Q6">
-        <v>11.9549493080543</v>
+        <v>96.45540711502501</v>
       </c>
       <c r="R6">
-        <v>11.9549493080543</v>
+        <v>578.73244269015</v>
       </c>
       <c r="S6">
-        <v>0.04513032529499184</v>
+        <v>0.2662225188494561</v>
       </c>
       <c r="T6">
-        <v>0.04513032529499184</v>
+        <v>0.2122787011584461</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.3969551506456</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H7">
-        <v>13.3969551506456</v>
+        <v>324.26945</v>
       </c>
       <c r="I7">
-        <v>0.09422547537874634</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J7">
-        <v>0.09422547537874634</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.97075975543119</v>
+        <v>0.15979</v>
       </c>
       <c r="N7">
-        <v>0.97075975543119</v>
+        <v>0.47937</v>
       </c>
       <c r="O7">
-        <v>0.5210390277832283</v>
+        <v>0.06790722929310794</v>
       </c>
       <c r="P7">
-        <v>0.5210390277832283</v>
+        <v>0.08102360479911513</v>
       </c>
       <c r="Q7">
-        <v>13.00522490556334</v>
+        <v>17.27167180516667</v>
       </c>
       <c r="R7">
-        <v>13.00522490556334</v>
+        <v>155.4450462465</v>
       </c>
       <c r="S7">
-        <v>0.04909515008375451</v>
+        <v>0.04767081608218467</v>
       </c>
       <c r="T7">
-        <v>0.04909515008375451</v>
+        <v>0.05701714658562586</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.1836949019119</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H8">
-        <v>25.1836949019119</v>
+        <v>324.26945</v>
       </c>
       <c r="I8">
-        <v>0.1771257421737063</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J8">
-        <v>0.1771257421737063</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.892363165631572</v>
+        <v>1.050507666666667</v>
       </c>
       <c r="N8">
-        <v>0.892363165631572</v>
+        <v>3.151523</v>
       </c>
       <c r="O8">
-        <v>0.4789609722167717</v>
+        <v>0.4464426121440712</v>
       </c>
       <c r="P8">
-        <v>0.4789609722167717</v>
+        <v>0.5326736217688252</v>
       </c>
       <c r="Q8">
-        <v>22.47300170496979</v>
+        <v>113.5491810969278</v>
       </c>
       <c r="R8">
-        <v>22.47300170496979</v>
+        <v>1021.94262987235</v>
       </c>
       <c r="S8">
-        <v>0.08483631767613563</v>
+        <v>0.3134023266198862</v>
       </c>
       <c r="T8">
-        <v>0.08483631767613563</v>
+        <v>0.3748479230218231</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,60 +968,60 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.1836949019119</v>
+        <v>108.0898166666667</v>
       </c>
       <c r="H9">
-        <v>25.1836949019119</v>
+        <v>324.26945</v>
       </c>
       <c r="I9">
-        <v>0.1771257421737063</v>
+        <v>0.7019991329115071</v>
       </c>
       <c r="J9">
-        <v>0.1771257421737063</v>
+        <v>0.7037103166045329</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.97075975543119</v>
+        <v>0.250402</v>
       </c>
       <c r="N9">
-        <v>0.97075975543119</v>
+        <v>0.500804</v>
       </c>
       <c r="O9">
-        <v>0.5210390277832283</v>
+        <v>0.1064153328083911</v>
       </c>
       <c r="P9">
-        <v>0.5210390277832283</v>
+        <v>0.08464640127211977</v>
       </c>
       <c r="Q9">
-        <v>24.4473175038337</v>
+        <v>27.06590627296667</v>
       </c>
       <c r="R9">
-        <v>24.4473175038337</v>
+        <v>162.3954376378</v>
       </c>
       <c r="S9">
-        <v>0.0922894244975707</v>
+        <v>0.07470347135998001</v>
       </c>
       <c r="T9">
-        <v>0.0922894244975707</v>
+        <v>0.05956654583863773</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.17927305390896</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H10">
-        <v>1.17927305390896</v>
+        <v>52.749977</v>
       </c>
       <c r="I10">
-        <v>0.008294240210288602</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J10">
-        <v>0.008294240210288602</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.892363165631572</v>
+        <v>0.8923635000000001</v>
       </c>
       <c r="N10">
-        <v>0.892363165631572</v>
+        <v>1.784727</v>
       </c>
       <c r="O10">
-        <v>0.4789609722167717</v>
+        <v>0.3792348257544297</v>
       </c>
       <c r="P10">
-        <v>0.4789609722167717</v>
+        <v>0.3016563721599398</v>
       </c>
       <c r="Q10">
-        <v>1.052339835530211</v>
+        <v>15.6907180335465</v>
       </c>
       <c r="R10">
-        <v>1.052339835530211</v>
+        <v>94.14430820127902</v>
       </c>
       <c r="S10">
-        <v>0.00397261735491927</v>
+        <v>0.04330729196410849</v>
       </c>
       <c r="T10">
-        <v>0.00397261735491927</v>
+        <v>0.03453207387775167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.17927305390896</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H11">
-        <v>1.17927305390896</v>
+        <v>52.749977</v>
       </c>
       <c r="I11">
-        <v>0.008294240210288602</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J11">
-        <v>0.008294240210288602</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.97075975543119</v>
+        <v>0.15979</v>
       </c>
       <c r="N11">
-        <v>0.97075975543119</v>
+        <v>0.47937</v>
       </c>
       <c r="O11">
-        <v>0.5210390277832283</v>
+        <v>0.06790722929310794</v>
       </c>
       <c r="P11">
-        <v>0.5210390277832283</v>
+        <v>0.08102360479911513</v>
       </c>
       <c r="Q11">
-        <v>1.144790821399255</v>
+        <v>2.809639608276667</v>
       </c>
       <c r="R11">
-        <v>1.144790821399255</v>
+        <v>25.28675647449</v>
       </c>
       <c r="S11">
-        <v>0.004321622855369332</v>
+        <v>0.007754768301196648</v>
       </c>
       <c r="T11">
-        <v>0.004321622855369332</v>
+        <v>0.009275166596783608</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,117 +1154,861 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.423712312194253</v>
+        <v>17.58332566666667</v>
       </c>
       <c r="H12">
-        <v>0.423712312194253</v>
+        <v>52.749977</v>
       </c>
       <c r="I12">
-        <v>0.002980117018485899</v>
+        <v>0.114196505761187</v>
       </c>
       <c r="J12">
-        <v>0.002980117018485899</v>
+        <v>0.1144748696355818</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.892363165631572</v>
+        <v>1.050507666666667</v>
       </c>
       <c r="N12">
-        <v>0.892363165631572</v>
+        <v>3.151523</v>
       </c>
       <c r="O12">
-        <v>0.4789609722167717</v>
+        <v>0.4464426121440712</v>
       </c>
       <c r="P12">
-        <v>0.4789609722167717</v>
+        <v>0.5326736217688252</v>
       </c>
       <c r="Q12">
-        <v>0.3781052602267365</v>
+        <v>18.47141841833011</v>
       </c>
       <c r="R12">
-        <v>0.3781052602267365</v>
+        <v>166.242765764971</v>
       </c>
       <c r="S12">
-        <v>0.001427359744493753</v>
+        <v>0.0509821863297498</v>
       </c>
       <c r="T12">
-        <v>0.001427359744493753</v>
+        <v>0.06097774341029949</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>17.58332566666667</v>
+      </c>
+      <c r="H13">
+        <v>52.749977</v>
+      </c>
+      <c r="I13">
+        <v>0.114196505761187</v>
+      </c>
+      <c r="J13">
+        <v>0.1144748696355818</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.250402</v>
+      </c>
+      <c r="N13">
+        <v>0.500804</v>
+      </c>
+      <c r="O13">
+        <v>0.1064153328083911</v>
+      </c>
+      <c r="P13">
+        <v>0.08464640127211977</v>
+      </c>
+      <c r="Q13">
+        <v>4.402899913584667</v>
+      </c>
+      <c r="R13">
+        <v>26.417399481508</v>
+      </c>
+      <c r="S13">
+        <v>0.01215225916613207</v>
+      </c>
+      <c r="T13">
+        <v>0.009689885750747059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H14">
+        <v>77.988344</v>
+      </c>
+      <c r="I14">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J14">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8923635000000001</v>
+      </c>
+      <c r="N14">
+        <v>1.784727</v>
+      </c>
+      <c r="O14">
+        <v>0.3792348257544297</v>
+      </c>
+      <c r="P14">
+        <v>0.3016563721599398</v>
+      </c>
+      <c r="Q14">
+        <v>23.197983870348</v>
+      </c>
+      <c r="R14">
+        <v>139.187903222088</v>
+      </c>
+      <c r="S14">
+        <v>0.06402778115723781</v>
+      </c>
+      <c r="T14">
+        <v>0.051054036603874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H15">
+        <v>77.988344</v>
+      </c>
+      <c r="I15">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J15">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.15979</v>
+      </c>
+      <c r="N15">
+        <v>0.47937</v>
+      </c>
+      <c r="O15">
+        <v>0.06790722929310794</v>
+      </c>
+      <c r="P15">
+        <v>0.08102360479911513</v>
+      </c>
+      <c r="Q15">
+        <v>4.153919162586667</v>
+      </c>
+      <c r="R15">
+        <v>37.38527246328</v>
+      </c>
+      <c r="S15">
+        <v>0.01146505785043318</v>
+      </c>
+      <c r="T15">
+        <v>0.01371289476026254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.423712312194253</v>
-      </c>
-      <c r="H13">
-        <v>0.423712312194253</v>
-      </c>
-      <c r="I13">
-        <v>0.002980117018485899</v>
-      </c>
-      <c r="J13">
-        <v>0.002980117018485899</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.97075975543119</v>
-      </c>
-      <c r="N13">
-        <v>0.97075975543119</v>
-      </c>
-      <c r="O13">
-        <v>0.5210390277832283</v>
-      </c>
-      <c r="P13">
-        <v>0.5210390277832283</v>
-      </c>
-      <c r="Q13">
-        <v>0.411322860558877</v>
-      </c>
-      <c r="R13">
-        <v>0.411322860558877</v>
-      </c>
-      <c r="S13">
-        <v>0.001552757273992146</v>
-      </c>
-      <c r="T13">
-        <v>0.001552757273992146</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H16">
+        <v>77.988344</v>
+      </c>
+      <c r="I16">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J16">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.050507666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.151523</v>
+      </c>
+      <c r="O16">
+        <v>0.4464426121440712</v>
+      </c>
+      <c r="P16">
+        <v>0.5326736217688252</v>
+      </c>
+      <c r="Q16">
+        <v>27.30911776087911</v>
+      </c>
+      <c r="R16">
+        <v>245.782059847912</v>
+      </c>
+      <c r="S16">
+        <v>0.07537474917489774</v>
+      </c>
+      <c r="T16">
+        <v>0.09015270716470966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>25.99611466666667</v>
+      </c>
+      <c r="H17">
+        <v>77.988344</v>
+      </c>
+      <c r="I17">
+        <v>0.1688341281153816</v>
+      </c>
+      <c r="J17">
+        <v>0.1692456759269281</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.250402</v>
+      </c>
+      <c r="N17">
+        <v>0.500804</v>
+      </c>
+      <c r="O17">
+        <v>0.1064153328083911</v>
+      </c>
+      <c r="P17">
+        <v>0.08464640127211977</v>
+      </c>
+      <c r="Q17">
+        <v>6.509479104762667</v>
+      </c>
+      <c r="R17">
+        <v>39.056874628576</v>
+      </c>
+      <c r="S17">
+        <v>0.01796653993281288</v>
+      </c>
+      <c r="T17">
+        <v>0.0143260373980819</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.181792</v>
+      </c>
+      <c r="H18">
+        <v>3.545376</v>
+      </c>
+      <c r="I18">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J18">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.8923635000000001</v>
+      </c>
+      <c r="N18">
+        <v>1.784727</v>
+      </c>
+      <c r="O18">
+        <v>0.3792348257544297</v>
+      </c>
+      <c r="P18">
+        <v>0.3016563721599398</v>
+      </c>
+      <c r="Q18">
+        <v>1.054588045392</v>
+      </c>
+      <c r="R18">
+        <v>6.327528272352001</v>
+      </c>
+      <c r="S18">
+        <v>0.002910724180117521</v>
+      </c>
+      <c r="T18">
+        <v>0.002320933447163545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.181792</v>
+      </c>
+      <c r="H19">
+        <v>3.545376</v>
+      </c>
+      <c r="I19">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J19">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.15979</v>
+      </c>
+      <c r="N19">
+        <v>0.47937</v>
+      </c>
+      <c r="O19">
+        <v>0.06790722929310794</v>
+      </c>
+      <c r="P19">
+        <v>0.08102360479911513</v>
+      </c>
+      <c r="Q19">
+        <v>0.18883854368</v>
+      </c>
+      <c r="R19">
+        <v>1.69954689312</v>
+      </c>
+      <c r="S19">
+        <v>0.0005212053347553756</v>
+      </c>
+      <c r="T19">
+        <v>0.0006233927466591745</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.181792</v>
+      </c>
+      <c r="H20">
+        <v>3.545376</v>
+      </c>
+      <c r="I20">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J20">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.050507666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.151523</v>
+      </c>
+      <c r="O20">
+        <v>0.4464426121440712</v>
+      </c>
+      <c r="P20">
+        <v>0.5326736217688252</v>
+      </c>
+      <c r="Q20">
+        <v>1.241481556405333</v>
+      </c>
+      <c r="R20">
+        <v>11.173334007648</v>
+      </c>
+      <c r="S20">
+        <v>0.003426561111884902</v>
+      </c>
+      <c r="T20">
+        <v>0.004098371986418761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.181792</v>
+      </c>
+      <c r="H21">
+        <v>3.545376</v>
+      </c>
+      <c r="I21">
+        <v>0.007675255494605696</v>
+      </c>
+      <c r="J21">
+        <v>0.00769396459469775</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.250402</v>
+      </c>
+      <c r="N21">
+        <v>0.500804</v>
+      </c>
+      <c r="O21">
+        <v>0.1064153328083911</v>
+      </c>
+      <c r="P21">
+        <v>0.08464640127211977</v>
+      </c>
+      <c r="Q21">
+        <v>0.295923080384</v>
+      </c>
+      <c r="R21">
+        <v>1.775538482304</v>
+      </c>
+      <c r="S21">
+        <v>0.0008167648678478977</v>
+      </c>
+      <c r="T21">
+        <v>0.0006512664144562681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.444929</v>
+      </c>
+      <c r="H22">
+        <v>0.889858</v>
+      </c>
+      <c r="I22">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J22">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.8923635000000001</v>
+      </c>
+      <c r="N22">
+        <v>1.784727</v>
+      </c>
+      <c r="O22">
+        <v>0.3792348257544297</v>
+      </c>
+      <c r="P22">
+        <v>0.3016563721599398</v>
+      </c>
+      <c r="Q22">
+        <v>0.3970383996915001</v>
+      </c>
+      <c r="R22">
+        <v>1.588153598766</v>
+      </c>
+      <c r="S22">
+        <v>0.001095849014662063</v>
+      </c>
+      <c r="T22">
+        <v>0.0005825337553551607</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.444929</v>
+      </c>
+      <c r="H23">
+        <v>0.889858</v>
+      </c>
+      <c r="I23">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J23">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.15979</v>
+      </c>
+      <c r="N23">
+        <v>0.47937</v>
+      </c>
+      <c r="O23">
+        <v>0.06790722929310794</v>
+      </c>
+      <c r="P23">
+        <v>0.08102360479911513</v>
+      </c>
+      <c r="Q23">
+        <v>0.07109520491000001</v>
+      </c>
+      <c r="R23">
+        <v>0.42657122946</v>
+      </c>
+      <c r="S23">
+        <v>0.0001962268896619494</v>
+      </c>
+      <c r="T23">
+        <v>0.0001564660624872058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.444929</v>
+      </c>
+      <c r="H24">
+        <v>0.889858</v>
+      </c>
+      <c r="I24">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J24">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.050507666666667</v>
+      </c>
+      <c r="N24">
+        <v>3.151523</v>
+      </c>
+      <c r="O24">
+        <v>0.4464426121440712</v>
+      </c>
+      <c r="P24">
+        <v>0.5326736217688252</v>
+      </c>
+      <c r="Q24">
+        <v>0.4674013256223333</v>
+      </c>
+      <c r="R24">
+        <v>2.804407953734</v>
+      </c>
+      <c r="S24">
+        <v>0.00129005477186327</v>
+      </c>
+      <c r="T24">
+        <v>0.001028655098666722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.444929</v>
+      </c>
+      <c r="H25">
+        <v>0.889858</v>
+      </c>
+      <c r="I25">
+        <v>0.002889631806577992</v>
+      </c>
+      <c r="J25">
+        <v>0.001931117022935945</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.250402</v>
+      </c>
+      <c r="N25">
+        <v>0.500804</v>
+      </c>
+      <c r="O25">
+        <v>0.1064153328083911</v>
+      </c>
+      <c r="P25">
+        <v>0.08464640127211977</v>
+      </c>
+      <c r="Q25">
+        <v>0.111411111458</v>
+      </c>
+      <c r="R25">
+        <v>0.445644445832</v>
+      </c>
+      <c r="S25">
+        <v>0.0003075011303907095</v>
+      </c>
+      <c r="T25">
+        <v>0.0001634621064268574</v>
       </c>
     </row>
   </sheetData>
